--- a/bank statement generator/bank_statements/statement_118.xlsx
+++ b/bank statement generator/bank_statements/statement_118.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 05.04.2025</t>
+          <t>KONTOSTAND AM 09.05.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,90 +759,74 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>06.04.</t>
+          <t>10.05.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>07.04.</t>
+          <t>11.05.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 43685141</t>
+          <t>RECHNUNG VODAFONE GMBH 6328499</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>41,72-</t>
+          <t>40,40-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>09.04.</t>
+          <t>13.05.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>10.04.</t>
+          <t>14.05.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-79925012</t>
+          <t>ZALANDO MKTPLC EU WTBGCS</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>54,39-</t>
+          <t>130,00-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>10.04.</t>
+          <t>14.05.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>11.04.</t>
+          <t>15.05.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>80,43-</t>
+          <t>24,85-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>11.04.</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>12.04.</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 19789241</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>84,10-</t>
-        </is>
-      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="13" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="8" t="n"/>
@@ -861,12 +845,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 14.04.2025</t>
+          <t>KONTOSTAND AM 18.05.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>260,64-</t>
+          <t>195,25-</t>
         </is>
       </c>
     </row>
@@ -874,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 20.04.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 28.05.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
